--- a/plotData.xlsx
+++ b/plotData.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>im(eps_total)</t>
+          <t>R(w)</t>
         </is>
       </c>
     </row>
@@ -451,7 +451,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>1.073056580821044</v>
+        <v>0.2787445397791105</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         <v>101</v>
       </c>
       <c r="B3" t="n">
-        <v>1.042689011514367</v>
+        <v>0.2797491303220355</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="n">
-        <v>1.013510620787443</v>
+        <v>0.2807286415693991</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9854651849963542</v>
+        <v>0.2816843234752888</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>104</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9584996705943477</v>
+        <v>0.2826173605406985</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         <v>105</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9325640264720807</v>
+        <v>0.2835288762215218</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         <v>106</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9076109916309023</v>
+        <v>0.284419937004135</v>
       </c>
     </row>
     <row r="9">
@@ -507,7 +507,7 @@
         <v>107</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8835959169312992</v>
+        <v>0.2852915561772015</v>
       </c>
     </row>
     <row r="10">
@@ -515,7 +515,7 @@
         <v>108</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8604765997722319</v>
+        <v>0.2861446973256376</v>
       </c>
     </row>
     <row r="11">
@@ -523,7 +523,7 @@
         <v>109</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8382131306594981</v>
+        <v>0.2869802775702783</v>
       </c>
     </row>
     <row r="12">
@@ -531,7 +531,7 @@
         <v>110</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8167677507137245</v>
+        <v>0.287799170574605</v>
       </c>
     </row>
     <row r="13">
@@ -539,7 +539,7 @@
         <v>111</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7961047192521036</v>
+        <v>0.2886022093379478</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>112</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7761901906535316</v>
+        <v>0.2893901887928067</v>
       </c>
     </row>
     <row r="15">
@@ -555,7 +555,7 @@
         <v>113</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7569920997851689</v>
+        <v>0.290163868222358</v>
       </c>
     </row>
     <row r="16">
@@ -563,7 +563,7 @@
         <v>114</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7384800553303787</v>
+        <v>0.2909239735127718</v>
       </c>
     </row>
     <row r="17">
@@ -571,7 +571,7 @@
         <v>115</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7206252404141568</v>
+        <v>0.2916711992536817</v>
       </c>
     </row>
     <row r="18">
@@ -579,7 +579,7 @@
         <v>116</v>
       </c>
       <c r="B18" t="n">
-        <v>0.703400319973131</v>
+        <v>0.2924062106989754</v>
       </c>
     </row>
     <row r="19">
@@ -587,7 +587,7 @@
         <v>117</v>
       </c>
       <c r="B19" t="n">
-        <v>0.686779354363498</v>
+        <v>0.293129645599026</v>
       </c>
     </row>
     <row r="20">
@@ -595,7 +595,7 @@
         <v>118</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6707377187423381</v>
+        <v>0.293842115914526</v>
       </c>
     </row>
     <row r="21">
@@ -603,7 +603,7 @@
         <v>119</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6552520277960423</v>
+        <v>0.2945442094212278</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>120</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6403000654244309</v>
+        <v>0.2952364912141117</v>
       </c>
     </row>
     <row r="23">
@@ -619,7 +619,7 @@
         <v>121</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6258607190209226</v>
+        <v>0.295919505118795</v>
       </c>
     </row>
     <row r="24">
@@ -627,7 +627,7 @@
         <v>122</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6119139180180694</v>
+        <v>0.2965937750173556</v>
       </c>
     </row>
     <row r="25">
@@ -635,7 +635,7 @@
         <v>123</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5984405763942303</v>
+        <v>0.2972598060951654</v>
       </c>
     </row>
     <row r="26">
@@ -643,7 +643,7 @@
         <v>124</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5854225388612927</v>
+        <v>0.297918086014791</v>
       </c>
     </row>
     <row r="27">
@@ -651,7 +651,7 @@
         <v>125</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5728425304754501</v>
+        <v>0.298569086022556</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>126</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5606841094332311</v>
+        <v>0.2992132619929083</v>
       </c>
     </row>
     <row r="29">
@@ -667,7 +667,7 @@
         <v>127</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5489316228334815</v>
+        <v>0.2998510554153497</v>
       </c>
     </row>
     <row r="30">
@@ -675,7 +675,7 @@
         <v>128</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5375701652029398</v>
+        <v>0.3004828943283283</v>
       </c>
     </row>
     <row r="31">
@@ -683,7 +683,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5265855395986012</v>
+        <v>0.3011091942041527</v>
       </c>
     </row>
     <row r="32">
@@ -691,7 +691,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5159642211143161</v>
+        <v>0.3017303587887102</v>
       </c>
     </row>
     <row r="33">
@@ -699,7 +699,7 @@
         <v>131</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5056933226321786</v>
+        <v>0.3023467808994825</v>
       </c>
     </row>
     <row r="34">
@@ -707,7 +707,7 @@
         <v>132</v>
       </c>
       <c r="B34" t="n">
-        <v>0.495760562671301</v>
+        <v>0.3029588431851197</v>
       </c>
     </row>
     <row r="35">
@@ -715,7 +715,7 @@
         <v>133</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4861542351976482</v>
+        <v>0.3035669188496019</v>
       </c>
     </row>
     <row r="36">
@@ -723,7 +723,7 @@
         <v>134</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4768631812688057</v>
+        <v>0.3041713723438176</v>
       </c>
     </row>
     <row r="37">
@@ -731,7 +731,7 @@
         <v>135</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4678767623969606</v>
+        <v>0.3047725600272035</v>
       </c>
     </row>
     <row r="38">
@@ -739,7 +739,7 @@
         <v>136</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4591848355220369</v>
+        <v>0.305370830801925</v>
       </c>
     </row>
     <row r="39">
@@ -747,7 +747,7 @@
         <v>137</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4507777294949388</v>
+        <v>0.3059665267219155</v>
       </c>
     </row>
     <row r="40">
@@ -755,7 +755,7 @@
         <v>138</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4426462229782478</v>
+        <v>0.3065599835789738</v>
       </c>
     </row>
     <row r="41">
@@ -763,7 +763,7 @@
         <v>139</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4347815236785632</v>
+        <v>0.3071515314679695</v>
       </c>
     </row>
     <row r="42">
@@ -771,7 +771,7 @@
         <v>140</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4271752488310103</v>
+        <v>0.307741495333119</v>
       </c>
     </row>
     <row r="43">
@@ -779,7 +779,7 @@
         <v>141</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4198194068623188</v>
+        <v>0.3083301954971797</v>
       </c>
     </row>
     <row r="44">
@@ -787,7 +787,7 @@
         <v>142</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4127063801643186</v>
+        <v>0.3089179481753204</v>
       </c>
     </row>
     <row r="45">
@@ -795,7 +795,7 @@
         <v>143</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4058289089147766</v>
+        <v>0.3095050659753577</v>
       </c>
     </row>
     <row r="46">
@@ -803,7 +803,7 @@
         <v>144</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3991800758872077</v>
+        <v>0.3100918583859613</v>
       </c>
     </row>
     <row r="47">
@@ -811,7 +811,7 @@
         <v>145</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3927532921956927</v>
+        <v>0.3106786322543827</v>
       </c>
     </row>
     <row r="48">
@@ -819,7 +819,7 @@
         <v>146</v>
       </c>
       <c r="B48" t="n">
-        <v>0.386542283924844</v>
+        <v>0.3112656922552007</v>
       </c>
     </row>
     <row r="49">
@@ -827,7 +827,7 @@
         <v>147</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3805410795988973</v>
+        <v>0.3118533413515365</v>
       </c>
     </row>
     <row r="50">
@@ -835,7 +835,7 @@
         <v>148</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3747439984475094</v>
+        <v>0.3124418812501456</v>
       </c>
     </row>
     <row r="51">
@@ -843,7 +843,7 @@
         <v>149</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3691456394292287</v>
+        <v>0.3130316128517748</v>
       </c>
     </row>
     <row r="52">
@@ -851,7 +851,7 @@
         <v>150</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3637408709767881</v>
+        <v>0.3136228366981338</v>
       </c>
     </row>
     <row r="53">
@@ -859,7 +859,7 @@
         <v>151</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3585248214313829</v>
+        <v>0.3142158534168308</v>
       </c>
     </row>
     <row r="54">
@@ -867,7 +867,7 @@
         <v>152</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3534928701359469</v>
+        <v>0.3148109641655942</v>
       </c>
     </row>
     <row r="55">
@@ -875,7 +875,7 @@
         <v>153</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3486406391601566</v>
+        <v>0.3154084710771134</v>
       </c>
     </row>
     <row r="56">
@@ -883,7 +883,7 @@
         <v>154</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3439639856324703</v>
+        <v>0.3160086777058288</v>
       </c>
     </row>
     <row r="57">
@@ -891,7 +891,7 @@
         <v>155</v>
       </c>
       <c r="B57" t="n">
-        <v>0.339458994657002</v>
+        <v>0.3166118894780079</v>
       </c>
     </row>
     <row r="58">
@@ -899,7 +899,7 @@
         <v>156</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3351219727954036</v>
+        <v>0.3172184141464702</v>
       </c>
     </row>
     <row r="59">
@@ -907,7 +907,7 @@
         <v>157</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3309494420962458</v>
+        <v>0.3178285622513361</v>
       </c>
     </row>
     <row r="60">
@@ -915,7 +915,7 @@
         <v>158</v>
       </c>
       <c r="B60" t="n">
-        <v>0.326938134656625</v>
+        <v>0.3184426475882188</v>
       </c>
     </row>
     <row r="61">
@@ -923,7 +923,7 @@
         <v>159</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3230849877029192</v>
+        <v>0.3190609876853056</v>
       </c>
     </row>
     <row r="62">
@@ -931,7 +931,7 @@
         <v>160</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3193871391797751</v>
+        <v>0.3196839042908248</v>
       </c>
     </row>
     <row r="63">
@@ -939,7 +939,7 @@
         <v>161</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3158419238385365</v>
+        <v>0.3203117238724538</v>
       </c>
     </row>
     <row r="64">
@@ -947,7 +947,7 @@
         <v>162</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3124468698184569</v>
+        <v>0.3209447781302777</v>
       </c>
     </row>
     <row r="65">
@@ -955,7 +955,7 @@
         <v>163</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3091996957161671</v>
+        <v>0.321583404524987</v>
       </c>
     </row>
     <row r="66">
@@ -963,7 +963,7 @@
         <v>164</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3060983081410228</v>
+        <v>0.3222279468230814</v>
       </c>
     </row>
     <row r="67">
@@ -971,7 +971,7 @@
         <v>165</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3031407997561459</v>
+        <v>0.3228787556609359</v>
       </c>
     </row>
     <row r="68">
@@ -979,7 +979,7 @@
         <v>166</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3003254478072132</v>
+        <v>0.3235361891296984</v>
       </c>
     </row>
     <row r="69">
@@ -987,7 +987,7 @@
         <v>167</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2976507131433584</v>
+        <v>0.3242006133830884</v>
       </c>
     </row>
     <row r="70">
@@ -995,7 +995,7 @@
         <v>168</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2951152397369495</v>
+        <v>0.3248724032703076</v>
       </c>
     </row>
     <row r="71">
@@ -1003,7 +1003,7 @@
         <v>169</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2927178547115072</v>
+        <v>0.3255519429964102</v>
       </c>
     </row>
     <row r="72">
@@ -1011,7 +1011,7 @@
         <v>170</v>
       </c>
       <c r="B72" t="n">
-        <v>0.290457568889664</v>
+        <v>0.3262396268126325</v>
       </c>
     </row>
     <row r="73">
@@ -1019,7 +1019,7 @@
         <v>171</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2883335778758453</v>
+        <v>0.3269358597393727</v>
       </c>
     </row>
     <row r="74">
@@ -1027,7 +1027,7 @@
         <v>172</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2863452636913132</v>
+        <v>0.3276410583246823</v>
       </c>
     </row>
     <row r="75">
@@ -1035,7 +1035,7 @@
         <v>173</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2844921969823741</v>
+        <v>0.3283556514413655</v>
       </c>
     </row>
     <row r="76">
@@ -1043,7 +1043,7 @@
         <v>174</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2827741398259502</v>
+        <v>0.3290800811260027</v>
       </c>
     </row>
     <row r="77">
@@ -1051,7 +1051,7 @@
         <v>175</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2811910491603756</v>
+        <v>0.3298148034634832</v>
       </c>
     </row>
     <row r="78">
@@ -1059,7 +1059,7 @@
         <v>176</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2797430808732481</v>
+        <v>0.3305602895209191</v>
       </c>
     </row>
     <row r="79">
@@ -1067,7 +1067,7 @@
         <v>177</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2784305945824832</v>
+        <v>0.3313170263351234</v>
       </c>
     </row>
     <row r="80">
@@ -1075,7 +1075,7 @@
         <v>178</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2772541591514268</v>
+        <v>0.3320855179581967</v>
       </c>
     </row>
     <row r="81">
@@ -1083,7 +1083,7 @@
         <v>179</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2762145589840425</v>
+        <v>0.3328662865661456</v>
       </c>
     </row>
     <row r="82">
@@ -1091,7 +1091,7 @@
         <v>180</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2753128011518506</v>
+        <v>0.3336598736358924</v>
       </c>
     </row>
     <row r="83">
@@ -1099,7 +1099,7 @@
         <v>181</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2745501234105384</v>
+        <v>0.3344668411965062</v>
       </c>
     </row>
     <row r="84">
@@ -1107,7 +1107,7 @@
         <v>182</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2739280031710465</v>
+        <v>0.335287773161011</v>
       </c>
     </row>
     <row r="85">
@@ -1115,7 +1115,7 @@
         <v>183</v>
       </c>
       <c r="B85" t="n">
-        <v>0.273448167497566</v>
+        <v>0.3361232767457224</v>
       </c>
     </row>
     <row r="86">
@@ -1123,7 +1123,7 @@
         <v>184</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2731126042133371</v>
+        <v>0.3369739839846904</v>
       </c>
     </row>
     <row r="87">
@@ -1131,7 +1131,7 @@
         <v>185</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2729235742045538</v>
+        <v>0.3378405533475701</v>
       </c>
     </row>
     <row r="88">
@@ -1139,7 +1139,7 @@
         <v>186</v>
       </c>
       <c r="B88" t="n">
-        <v>0.2728836250231563</v>
+        <v>0.3387236714700255</v>
       </c>
     </row>
     <row r="89">
@@ -1147,7 +1147,7 @@
         <v>187</v>
       </c>
       <c r="B89" t="n">
-        <v>0.272995605900999</v>
+        <v>0.3396240550066673</v>
       </c>
     </row>
     <row r="90">
@@ -1155,7 +1155,7 @@
         <v>188</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2732626843009722</v>
+        <v>0.3405424526175292</v>
       </c>
     </row>
     <row r="91">
@@ -1163,7 +1163,7 @@
         <v>189</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2736883641453253</v>
+        <v>0.3414796471001779</v>
       </c>
     </row>
     <row r="92">
@@ -1171,7 +1171,7 @@
         <v>190</v>
       </c>
       <c r="B92" t="n">
-        <v>0.2742765058779093</v>
+        <v>0.3424364576808079</v>
       </c>
     </row>
     <row r="93">
@@ -1179,7 +1179,7 @@
         <v>191</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2750313485355796</v>
+        <v>0.3434137424790533</v>
       </c>
     </row>
     <row r="94">
@@ -1187,7 +1187,7 @@
         <v>192</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2759575340248707</v>
+        <v>0.3444124011627996</v>
       </c>
     </row>
     <row r="95">
@@ -1195,7 +1195,7 @@
         <v>193</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2770601338236049</v>
+        <v>0.3454333778110283</v>
       </c>
     </row>
     <row r="96">
@@ -1203,7 +1203,7 @@
         <v>194</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2783446783537321</v>
+        <v>0.3464776640046853</v>
       </c>
     </row>
     <row r="97">
@@ -1211,7 +1211,7 @@
         <v>195</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2798171893018508</v>
+        <v>0.3475463021677717</v>
       </c>
     </row>
     <row r="98">
@@ -1219,7 +1219,7 @@
         <v>196</v>
       </c>
       <c r="B98" t="n">
-        <v>0.281484215198085</v>
+        <v>0.3486403891833406</v>
       </c>
     </row>
     <row r="99">
@@ -1227,7 +1227,7 @@
         <v>197</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2833528706028762</v>
+        <v>0.349761080311902</v>
       </c>
     </row>
     <row r="100">
@@ -1235,7 +1235,7 @@
         <v>198</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2854308792955343</v>
+        <v>0.3509095934429063</v>
       </c>
     </row>
     <row r="101">
@@ -1243,7 +1243,7 @@
         <v>199</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2877266219088989</v>
+        <v>0.3520872137135892</v>
       </c>
     </row>
     <row r="102">
@@ -1251,7 +1251,7 @@
         <v>200</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2902491885121825</v>
+        <v>0.3532952985335478</v>
       </c>
     </row>
     <row r="103">
@@ -1259,7 +1259,7 @@
         <v>201</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2930084367101524</v>
+        <v>0.3545352830580707</v>
       </c>
     </row>
     <row r="104">
@@ -1267,7 +1267,7 @@
         <v>202</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2960150559026185</v>
+        <v>0.3558086861585558</v>
       </c>
     </row>
     <row r="105">
@@ -1275,7 +1275,7 @@
         <v>203</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2992806384353183</v>
+        <v>0.3571171169443971</v>
       </c>
     </row>
     <row r="106">
@@ -1283,7 +1283,7 @@
         <v>204</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3028177584736489</v>
+        <v>0.3584622818976731</v>
       </c>
     </row>
     <row r="107">
@@ -1291,7 +1291,7 @@
         <v>205</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3066400595464879</v>
+        <v>0.3598459926899027</v>
       </c>
     </row>
     <row r="108">
@@ -1299,7 +1299,7 @@
         <v>206</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3107623518412836</v>
+        <v>0.3612701747592997</v>
       </c>
     </row>
     <row r="109">
@@ -1307,7 +1307,7 @@
         <v>207</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3152007204868088</v>
+        <v>0.3627368767374758</v>
       </c>
     </row>
     <row r="110">
@@ -1315,7 +1315,7 @@
         <v>208</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3199726462402753</v>
+        <v>0.3642482808267249</v>
       </c>
     </row>
     <row r="111">
@@ -1323,7 +1323,7 @@
         <v>209</v>
       </c>
       <c r="B111" t="n">
-        <v>0.325097140205415</v>
+        <v>0.3658067142431074</v>
       </c>
     </row>
     <row r="112">
@@ -1331,7 +1331,7 @@
         <v>210</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3305948944530971</v>
+        <v>0.3674146618569172</v>
       </c>
     </row>
     <row r="113">
@@ -1339,7 +1339,7 @@
         <v>211</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3364884507026086</v>
+        <v>0.3690747801811574</v>
       </c>
     </row>
     <row r="114">
@@ -1347,7 +1347,7 @@
         <v>212</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3428023895577822</v>
+        <v>0.3707899128808851</v>
       </c>
     </row>
     <row r="115">
@@ -1355,7 +1355,7 @@
         <v>213</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3495635431872829</v>
+        <v>0.3725631080023129</v>
       </c>
     </row>
     <row r="116">
@@ -1363,7 +1363,7 @@
         <v>214</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3568012348041787</v>
+        <v>0.37439763715112</v>
       </c>
     </row>
     <row r="117">
@@ -1371,7 +1371,7 @@
         <v>215</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3645475488505717</v>
+        <v>0.3762970168854192</v>
       </c>
     </row>
     <row r="118">
@@ -1379,7 +1379,7 @@
         <v>216</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3728376364458795</v>
+        <v>0.3782650326313857</v>
       </c>
     </row>
     <row r="119">
@@ -1387,7 +1387,7 @@
         <v>217</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3817100614335223</v>
+        <v>0.3803057654799937</v>
       </c>
     </row>
     <row r="120">
@@ -1395,7 +1395,7 @@
         <v>218</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3912071932864444</v>
+        <v>0.3824236222833504</v>
       </c>
     </row>
     <row r="121">
@@ -1403,7 +1403,7 @@
         <v>219</v>
       </c>
       <c r="B121" t="n">
-        <v>0.40137565423933</v>
+        <v>0.3846233695408289</v>
       </c>
     </row>
     <row r="122">
@@ -1411,7 +1411,7 @@
         <v>220</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4122668293445711</v>
+        <v>0.3869101716511911</v>
       </c>
     </row>
     <row r="123">
@@ -1419,7 +1419,7 @@
         <v>221</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4239374497498357</v>
+        <v>0.3892896342104005</v>
       </c>
     </row>
     <row r="124">
@@ -1427,7 +1427,7 @@
         <v>222</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4364502614296966</v>
+        <v>0.3917678531600015</v>
       </c>
     </row>
     <row r="125">
@@ -1435,7 +1435,7 @@
         <v>223</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4498747939503647</v>
+        <v>0.3943514707429011</v>
       </c>
     </row>
     <row r="126">
@@ -1443,7 +1443,7 @@
         <v>224</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4642882467036114</v>
+        <v>0.3970477394088395</v>
       </c>
     </row>
     <row r="127">
@@ -1451,7 +1451,7 @@
         <v>225</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4797765135381814</v>
+        <v>0.3998645950391262</v>
       </c>
     </row>
     <row r="128">
@@ -1459,7 +1459,7 @@
         <v>226</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4964353710030786</v>
+        <v>0.4028107411403568</v>
       </c>
     </row>
     <row r="129">
@@ -1467,7 +1467,7 @@
         <v>227</v>
       </c>
       <c r="B129" t="n">
-        <v>0.514371860699916</v>
+        <v>0.4058957460038142</v>
       </c>
     </row>
     <row r="130">
@@ -1475,7 +1475,7 @@
         <v>228</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5337059027817652</v>
+        <v>0.4091301552596098</v>
       </c>
     </row>
     <row r="131">
@@ -1483,7 +1483,7 @@
         <v>229</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5545721857703992</v>
+        <v>0.4125256227964456</v>
       </c>
     </row>
     <row r="132">
@@ -1491,7 +1491,7 @@
         <v>230</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5771223880300062</v>
+        <v>0.4160950637012123</v>
       </c>
     </row>
     <row r="133">
@@ -1499,7 +1499,7 @@
         <v>231</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6015277990049752</v>
+        <v>0.4198528337401131</v>
       </c>
     </row>
     <row r="134">
@@ -1507,7 +1507,7 @@
         <v>232</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6279824244535879</v>
+        <v>0.4238149410119321</v>
       </c>
     </row>
     <row r="135">
@@ -1515,7 +1515,7 @@
         <v>233</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6567066803822934</v>
+        <v>0.4279992968320494</v>
       </c>
     </row>
     <row r="136">
@@ -1523,7 +1523,7 @@
         <v>234</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6879518065301048</v>
+        <v>0.4324260147589186</v>
       </c>
     </row>
     <row r="137">
@@ -1531,7 +1531,7 @@
         <v>235</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7220051638438841</v>
+        <v>0.4371177690991874</v>
       </c>
     </row>
     <row r="138">
@@ -1539,7 +1539,7 @@
         <v>236</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7591966238192536</v>
+        <v>0.4421002274268187</v>
       </c>
     </row>
     <row r="139">
@@ -1547,7 +1547,7 @@
         <v>237</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7999063141195418</v>
+        <v>0.4474025759111648</v>
       </c>
     </row>
     <row r="140">
@@ -1555,7 +1555,7 @@
         <v>238</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8445740589999244</v>
+        <v>0.4530581619739023</v>
       </c>
     </row>
     <row r="141">
@@ -1563,7 +1563,7 @@
         <v>239</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8937109509438959</v>
+        <v>0.4591052865644909</v>
       </c>
     </row>
     <row r="142">
@@ -1571,7 +1571,7 @@
         <v>240</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9479136202011139</v>
+        <v>0.4655881889948714</v>
       </c>
     </row>
     <row r="143">
@@ -1579,7 +1579,7 @@
         <v>241</v>
       </c>
       <c r="B143" t="n">
-        <v>1.007881943766566</v>
+        <v>0.4725582820231621</v>
       </c>
     </row>
     <row r="144">
@@ -1587,7 +1587,7 @@
         <v>242</v>
       </c>
       <c r="B144" t="n">
-        <v>1.074441172071788</v>
+        <v>0.4800757155028041</v>
       </c>
     </row>
     <row r="145">
@@ -1595,7 +1595,7 @@
         <v>243</v>
       </c>
       <c r="B145" t="n">
-        <v>1.148569775157007</v>
+        <v>0.4882113760243704</v>
       </c>
     </row>
     <row r="146">
@@ -1603,7 +1603,7 @@
         <v>244</v>
       </c>
       <c r="B146" t="n">
-        <v>1.231434756536922</v>
+        <v>0.497049471364973</v>
       </c>
     </row>
     <row r="147">
@@ -1611,7 +1611,7 @@
         <v>245</v>
       </c>
       <c r="B147" t="n">
-        <v>1.32443680557385</v>
+        <v>0.5066909076222392</v>
       </c>
     </row>
     <row r="148">
@@ -1619,7 +1619,7 @@
         <v>246</v>
       </c>
       <c r="B148" t="n">
-        <v>1.429268537175097</v>
+        <v>0.5172577508912051</v>
       </c>
     </row>
     <row r="149">
@@ -1627,7 +1627,7 @@
         <v>247</v>
       </c>
       <c r="B149" t="n">
-        <v>1.547990320624483</v>
+        <v>0.5288991825053861</v>
       </c>
     </row>
     <row r="150">
@@ -1635,7 +1635,7 @@
         <v>248</v>
       </c>
       <c r="B150" t="n">
-        <v>1.683130010373354</v>
+        <v>0.5417995115170806</v>
       </c>
     </row>
     <row r="151">
@@ -1643,7 +1643,7 @@
         <v>249</v>
       </c>
       <c r="B151" t="n">
-        <v>1.837815545034667</v>
+        <v>0.5561889813429417</v>
       </c>
     </row>
     <row r="152">
@@ -1651,7 +1651,7 @@
         <v>250</v>
       </c>
       <c r="B152" t="n">
-        <v>2.01595332564592</v>
+        <v>0.5723581900183397</v>
       </c>
     </row>
     <row r="153">
@@ -1659,7 +1659,7 @@
         <v>251</v>
       </c>
       <c r="B153" t="n">
-        <v>2.222471241685337</v>
+        <v>0.5906765058006932</v>
       </c>
     </row>
     <row r="154">
@@ -1667,7 +1667,7 @@
         <v>252</v>
       </c>
       <c r="B154" t="n">
-        <v>2.46365436321162</v>
+        <v>0.6116123615963375</v>
       </c>
     </row>
     <row r="155">
@@ -1675,7 +1675,7 @@
         <v>253</v>
       </c>
       <c r="B155" t="n">
-        <v>2.747615628457897</v>
+        <v>0.6357433612948474</v>
       </c>
     </row>
     <row r="156">
@@ -1683,7 +1683,7 @@
         <v>254</v>
       </c>
       <c r="B156" t="n">
-        <v>3.084966682724118</v>
+        <v>0.6637084124125862</v>
       </c>
     </row>
     <row r="157">
@@ -1691,7 +1691,7 @@
         <v>255</v>
       </c>
       <c r="B157" t="n">
-        <v>3.489791212502856</v>
+        <v>0.6959391940426775</v>
       </c>
     </row>
     <row r="158">
@@ -1699,7 +1699,7 @@
         <v>256</v>
       </c>
       <c r="B158" t="n">
-        <v>3.98108510368014</v>
+        <v>0.7317602146474294</v>
       </c>
     </row>
     <row r="159">
@@ -1707,7 +1707,7 @@
         <v>257</v>
       </c>
       <c r="B159" t="n">
-        <v>4.584933639761736</v>
+        <v>0.7677416053925805</v>
       </c>
     </row>
     <row r="160">
@@ -1715,7 +1715,7 @@
         <v>258</v>
       </c>
       <c r="B160" t="n">
-        <v>5.3378816636479</v>
+        <v>0.7982487848474293</v>
       </c>
     </row>
     <row r="161">
@@ -1723,7 +1723,7 @@
         <v>259</v>
       </c>
       <c r="B161" t="n">
-        <v>6.292287530121198</v>
+        <v>0.8203755375524335</v>
       </c>
     </row>
     <row r="162">
@@ -1731,7 +1731,7 @@
         <v>260</v>
       </c>
       <c r="B162" t="n">
-        <v>7.525073326781341</v>
+        <v>0.83524395155623</v>
       </c>
     </row>
     <row r="163">
@@ -1739,7 +1739,7 @@
         <v>261</v>
       </c>
       <c r="B163" t="n">
-        <v>9.152471118594454</v>
+        <v>0.8449863651695227</v>
       </c>
     </row>
     <row r="164">
@@ -1747,7 +1747,7 @@
         <v>262</v>
       </c>
       <c r="B164" t="n">
-        <v>11.3556898745546</v>
+        <v>0.8512179619971576</v>
       </c>
     </row>
     <row r="165">
@@ -1755,7 +1755,7 @@
         <v>263</v>
       </c>
       <c r="B165" t="n">
-        <v>14.42704342753601</v>
+        <v>0.8549579186843821</v>
       </c>
     </row>
     <row r="166">
@@ -1763,7 +1763,7 @@
         <v>264</v>
       </c>
       <c r="B166" t="n">
-        <v>18.85507674003618</v>
+        <v>0.8568267971783297</v>
       </c>
     </row>
     <row r="167">
@@ -1771,7 +1771,7 @@
         <v>265</v>
       </c>
       <c r="B167" t="n">
-        <v>25.48270996048866</v>
+        <v>0.8572010840361513</v>
       </c>
     </row>
     <row r="168">
@@ -1779,7 +1779,7 @@
         <v>266</v>
       </c>
       <c r="B168" t="n">
-        <v>35.78411770210347</v>
+        <v>0.8563057698312579</v>
       </c>
     </row>
     <row r="169">
@@ -1787,7 +1787,7 @@
         <v>267</v>
       </c>
       <c r="B169" t="n">
-        <v>52.20479504862983</v>
+        <v>0.8542668908232518</v>
       </c>
     </row>
     <row r="170">
@@ -1795,7 +1795,7 @@
         <v>268</v>
       </c>
       <c r="B170" t="n">
-        <v>77.64088006525562</v>
+        <v>0.8511409583546313</v>
       </c>
     </row>
     <row r="171">
@@ -1803,7 +1803,7 @@
         <v>269</v>
       </c>
       <c r="B171" t="n">
-        <v>109.5995930932439</v>
+        <v>0.8469309714844609</v>
       </c>
     </row>
     <row r="172">
@@ -1811,7 +1811,7 @@
         <v>270</v>
       </c>
       <c r="B172" t="n">
-        <v>126.7205460132066</v>
+        <v>0.8415941878437578</v>
       </c>
     </row>
     <row r="173">
@@ -1819,7 +1819,7 @@
         <v>271</v>
       </c>
       <c r="B173" t="n">
-        <v>108.9011020990384</v>
+        <v>0.8350443003099766</v>
       </c>
     </row>
     <row r="174">
@@ -1827,7 +1827,7 @@
         <v>272</v>
       </c>
       <c r="B174" t="n">
-        <v>76.94078308641932</v>
+        <v>0.8271492268779557</v>
       </c>
     </row>
     <row r="175">
@@ -1835,7 +1835,7 @@
         <v>273</v>
       </c>
       <c r="B175" t="n">
-        <v>51.72844127593653</v>
+        <v>0.8177248154485487</v>
       </c>
     </row>
     <row r="176">
@@ -1843,7 +1843,7 @@
         <v>274</v>
       </c>
       <c r="B176" t="n">
-        <v>35.48325495543824</v>
+        <v>0.8065240848125583</v>
       </c>
     </row>
     <row r="177">
@@ -1851,7 +1851,7 @@
         <v>275</v>
       </c>
       <c r="B177" t="n">
-        <v>25.28915523104916</v>
+        <v>0.7932209842798381</v>
       </c>
     </row>
     <row r="178">
@@ -1859,7 +1859,7 @@
         <v>276</v>
       </c>
       <c r="B178" t="n">
-        <v>18.72480670505439</v>
+        <v>0.777386934536283</v>
       </c>
     </row>
     <row r="179">
@@ -1867,7 +1867,7 @@
         <v>277</v>
       </c>
       <c r="B179" t="n">
-        <v>14.33473924453306</v>
+        <v>0.7584575318338717</v>
       </c>
     </row>
     <row r="180">
@@ -1875,7 +1875,7 @@
         <v>278</v>
       </c>
       <c r="B180" t="n">
-        <v>11.2868354334305</v>
+        <v>0.7356857676816017</v>
       </c>
     </row>
     <row r="181">
@@ -1883,7 +1883,7 @@
         <v>279</v>
       </c>
       <c r="B181" t="n">
-        <v>9.09851227595108</v>
+        <v>0.7080772475617232</v>
       </c>
     </row>
     <row r="182">
@@ -1891,7 +1891,7 @@
         <v>280</v>
       </c>
       <c r="B182" t="n">
-        <v>7.480789305867414</v>
+        <v>0.674303483032438</v>
       </c>
     </row>
     <row r="183">
@@ -1899,7 +1899,7 @@
         <v>281</v>
       </c>
       <c r="B183" t="n">
-        <v>6.254377871512106</v>
+        <v>0.6325958332749693</v>
       </c>
     </row>
     <row r="184">
@@ -1907,7 +1907,7 @@
         <v>282</v>
       </c>
       <c r="B184" t="n">
-        <v>5.304190253231655</v>
+        <v>0.5806494156910139</v>
       </c>
     </row>
     <row r="185">
@@ -1915,7 +1915,7 @@
         <v>283</v>
       </c>
       <c r="B185" t="n">
-        <v>4.554009275496611</v>
+        <v>0.5156575677262614</v>
       </c>
     </row>
     <row r="186">
@@ -1923,7 +1923,7 @@
         <v>284</v>
       </c>
       <c r="B186" t="n">
-        <v>3.951924408400797</v>
+        <v>0.4348773115392646</v>
       </c>
     </row>
     <row r="187">
@@ -1931,7 +1931,7 @@
         <v>285</v>
       </c>
       <c r="B187" t="n">
-        <v>3.461683415313649</v>
+        <v>0.3378214591769401</v>
       </c>
     </row>
     <row r="188">
@@ -1939,7 +1939,7 @@
         <v>286</v>
       </c>
       <c r="B188" t="n">
-        <v>3.057397110366712</v>
+        <v>0.2317250363664632</v>
       </c>
     </row>
     <row r="189">
@@ -1947,7 +1947,7 @@
         <v>287</v>
       </c>
       <c r="B189" t="n">
-        <v>2.720204059035074</v>
+        <v>0.1364604771333142</v>
       </c>
     </row>
     <row r="190">
@@ -1955,7 +1955,7 @@
         <v>288</v>
       </c>
       <c r="B190" t="n">
-        <v>2.436114667316966</v>
+        <v>0.0719964701737916</v>
       </c>
     </row>
     <row r="191">
@@ -1963,7 +1963,7 @@
         <v>289</v>
       </c>
       <c r="B191" t="n">
-        <v>2.19458436115948</v>
+        <v>0.03877272892224073</v>
       </c>
     </row>
     <row r="192">
@@ -1971,7 +1971,7 @@
         <v>290</v>
       </c>
       <c r="B192" t="n">
-        <v>1.987548809101046</v>
+        <v>0.02564021096947264</v>
       </c>
     </row>
     <row r="193">
@@ -1979,7 +1979,7 @@
         <v>291</v>
       </c>
       <c r="B193" t="n">
-        <v>1.808758693336167</v>
+        <v>0.02325670259643784</v>
       </c>
     </row>
     <row r="194">
@@ -1987,7 +1987,7 @@
         <v>292</v>
       </c>
       <c r="B194" t="n">
-        <v>1.653312773950685</v>
+        <v>0.02630665107092435</v>
       </c>
     </row>
     <row r="195">
@@ -1995,7 +1995,7 @@
         <v>293</v>
       </c>
       <c r="B195" t="n">
-        <v>1.517324752128093</v>
+        <v>0.03202618220889298</v>
       </c>
     </row>
     <row r="196">
@@ -2003,7 +2003,7 @@
         <v>294</v>
       </c>
       <c r="B196" t="n">
-        <v>1.397682013996389</v>
+        <v>0.03898256284438788</v>
       </c>
     </row>
     <row r="197">
@@ -2011,7 +2011,7 @@
         <v>295</v>
       </c>
       <c r="B197" t="n">
-        <v>1.291868497274884</v>
+        <v>0.0464202210319692</v>
       </c>
     </row>
     <row r="198">
@@ -2019,7 +2019,7 @@
         <v>296</v>
       </c>
       <c r="B198" t="n">
-        <v>1.197832980514565</v>
+        <v>0.05393503189029981</v>
       </c>
     </row>
     <row r="199">
@@ -2027,7 +2027,7 @@
         <v>297</v>
       </c>
       <c r="B199" t="n">
-        <v>1.113889994468068</v>
+        <v>0.06131076673433077</v>
       </c>
     </row>
     <row r="200">
@@ -2035,7 +2035,7 @@
         <v>298</v>
       </c>
       <c r="B200" t="n">
-        <v>1.03864446322509</v>
+        <v>0.06843447400659518</v>
       </c>
     </row>
     <row r="201">
@@ -2043,7 +2043,7 @@
         <v>299</v>
       </c>
       <c r="B201" t="n">
-        <v>0.9709338123861301</v>
+        <v>0.07525120007624475</v>
       </c>
     </row>
     <row r="202">
@@ -2051,7 +2051,7 @@
         <v>300</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9097830769163785</v>
+        <v>0.08173899034759229</v>
       </c>
     </row>
     <row r="203">
@@ -2059,7 +2059,7 @@
         <v>301</v>
       </c>
       <c r="B203" t="n">
-        <v>0.8543697838671374</v>
+        <v>0.08789471170924193</v>
       </c>
     </row>
     <row r="204">
@@ -2067,7 +2067,7 @@
         <v>302</v>
       </c>
       <c r="B204" t="n">
-        <v>0.8039962560819816</v>
+        <v>0.093725836102607</v>
       </c>
     </row>
     <row r="205">
@@ -2075,7 +2075,7 @@
         <v>303</v>
       </c>
       <c r="B205" t="n">
-        <v>0.7580676007546383</v>
+        <v>0.09924560174079668</v>
       </c>
     </row>
     <row r="206">
@@ -2083,7 +2083,7 @@
         <v>304</v>
       </c>
       <c r="B206" t="n">
-        <v>0.71607408978145</v>
+        <v>0.1044701350615338</v>
       </c>
     </row>
     <row r="207">
@@ -2091,7 +2091,7 @@
         <v>305</v>
       </c>
       <c r="B207" t="n">
-        <v>0.6775769599843618</v>
+        <v>0.1094167341562185</v>
       </c>
     </row>
     <row r="208">
@@ -2099,7 +2099,7 @@
         <v>306</v>
       </c>
       <c r="B208" t="n">
-        <v>0.6421968963324025</v>
+        <v>0.1141028515033007</v>
       </c>
     </row>
     <row r="209">
@@ -2107,7 +2107,7 @@
         <v>307</v>
       </c>
       <c r="B209" t="n">
-        <v>0.6096046349367883</v>
+        <v>0.1185455029146208</v>
       </c>
     </row>
     <row r="210">
@@ -2115,7 +2115,7 @@
         <v>308</v>
       </c>
       <c r="B210" t="n">
-        <v>0.5795132520052281</v>
+        <v>0.1227609383053474</v>
       </c>
     </row>
     <row r="211">
@@ -2123,7 +2123,7 @@
         <v>309</v>
       </c>
       <c r="B211" t="n">
-        <v>0.5516718021843707</v>
+        <v>0.1267644737745795</v>
       </c>
     </row>
     <row r="212">
@@ -2131,7 +2131,7 @@
         <v>310</v>
       </c>
       <c r="B212" t="n">
-        <v>0.5258600433650071</v>
+        <v>0.1305704227533917</v>
       </c>
     </row>
     <row r="213">
@@ -2139,7 +2139,7 @@
         <v>311</v>
       </c>
       <c r="B213" t="n">
-        <v>0.5018840412138887</v>
+        <v>0.1341920872979691</v>
       </c>
     </row>
     <row r="214">
@@ -2147,7 +2147,7 @@
         <v>312</v>
       </c>
       <c r="B214" t="n">
-        <v>0.4795724898691405</v>
+        <v>0.1376417850274687</v>
       </c>
     </row>
     <row r="215">
@@ -2155,7 +2155,7 @@
         <v>313</v>
       </c>
       <c r="B215" t="n">
-        <v>0.4587736186308026</v>
+        <v>0.1409308962374645</v>
       </c>
     </row>
     <row r="216">
@@ -2163,7 +2163,7 @@
         <v>314</v>
       </c>
       <c r="B216" t="n">
-        <v>0.4393525804735282</v>
+        <v>0.1440699214341194</v>
       </c>
     </row>
     <row r="217">
@@ -2171,7 +2171,7 @@
         <v>315</v>
       </c>
       <c r="B217" t="n">
-        <v>0.4211892385671276</v>
+        <v>0.1470685431793306</v>
       </c>
     </row>
     <row r="218">
@@ -2179,7 +2179,7 @@
         <v>316</v>
       </c>
       <c r="B218" t="n">
-        <v>0.4041762830270519</v>
+        <v>0.1499356884756893</v>
       </c>
     </row>
     <row r="219">
@@ -2187,7 +2187,7 @@
         <v>317</v>
       </c>
       <c r="B219" t="n">
-        <v>0.3882176228184478</v>
+        <v>0.1526795894251499</v>
       </c>
     </row>
     <row r="220">
@@ -2195,7 +2195,7 @@
         <v>318</v>
       </c>
       <c r="B220" t="n">
-        <v>0.3732270078506679</v>
+        <v>0.1553078408638939</v>
       </c>
     </row>
     <row r="221">
@@ -2203,7 +2203,7 @@
         <v>319</v>
       </c>
       <c r="B221" t="n">
-        <v>0.3591268443921558</v>
+        <v>0.1578274542967897</v>
       </c>
     </row>
     <row r="222">
@@ -2211,7 +2211,7 @@
         <v>320</v>
       </c>
       <c r="B222" t="n">
-        <v>0.34584717344326</v>
+        <v>0.1602449078492614</v>
       </c>
     </row>
     <row r="223">
@@ -2219,7 +2219,7 @@
         <v>321</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3333247869615419</v>
+        <v>0.1625661922007781</v>
       </c>
     </row>
     <row r="224">
@@ -2227,7 +2227,7 @@
         <v>322</v>
       </c>
       <c r="B224" t="n">
-        <v>0.3215024610997225</v>
+        <v>0.1647968526137614</v>
       </c>
     </row>
     <row r="225">
@@ -2235,7 +2235,7 @@
         <v>323</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3103282890922495</v>
+        <v>0.1669420272581196</v>
       </c>
     </row>
     <row r="226">
@@ -2243,7 +2243,7 @@
         <v>324</v>
       </c>
       <c r="B226" t="n">
-        <v>0.2997550992703593</v>
+        <v>0.1690064820770217</v>
       </c>
     </row>
     <row r="227">
@@ -2251,7 +2251,7 @@
         <v>325</v>
       </c>
       <c r="B227" t="n">
-        <v>0.2897399460215004</v>
+        <v>0.1709946424586126</v>
       </c>
     </row>
     <row r="228">
@@ -2259,7 +2259,7 @@
         <v>326</v>
       </c>
       <c r="B228" t="n">
-        <v>0.2802436634350206</v>
+        <v>0.1729106219808555</v>
       </c>
     </row>
     <row r="229">
@@ -2267,7 +2267,7 @@
         <v>327</v>
       </c>
       <c r="B229" t="n">
-        <v>0.2712304729698303</v>
+        <v>0.1747582484890254</v>
       </c>
     </row>
     <row r="230">
@@ -2275,7 +2275,7 @@
         <v>328</v>
       </c>
       <c r="B230" t="n">
-        <v>0.2626676378032667</v>
+        <v>0.1765410877517997</v>
       </c>
     </row>
     <row r="231">
@@ -2283,7 +2283,7 @@
         <v>329</v>
       </c>
       <c r="B231" t="n">
-        <v>0.2545251576231425</v>
+        <v>0.1782624649251921</v>
       </c>
     </row>
     <row r="232">
@@ -2291,7 +2291,7 @@
         <v>330</v>
       </c>
       <c r="B232" t="n">
-        <v>0.2467754985467932</v>
+        <v>0.1799254840355546</v>
       </c>
     </row>
     <row r="233">
@@ -2299,7 +2299,7 @@
         <v>331</v>
       </c>
       <c r="B233" t="n">
-        <v>0.2393933536239301</v>
+        <v>0.181533045674669</v>
       </c>
     </row>
     <row r="234">
@@ -2307,7 +2307,7 @@
         <v>332</v>
       </c>
       <c r="B234" t="n">
-        <v>0.2323554300302814</v>
+        <v>0.1830878630822691</v>
       </c>
     </row>
     <row r="235">
@@ -2315,7 +2315,7 @@
         <v>333</v>
       </c>
       <c r="B235" t="n">
-        <v>0.2256402596074586</v>
+        <v>0.184592476774604</v>
       </c>
     </row>
     <row r="236">
@@ -2323,7 +2323,7 @@
         <v>334</v>
       </c>
       <c r="B236" t="n">
-        <v>0.2192280298684602</v>
+        <v>0.1860492678620592</v>
       </c>
     </row>
     <row r="237">
@@ -2331,7 +2331,7 @@
         <v>335</v>
       </c>
       <c r="B237" t="n">
-        <v>0.2131004329818064</v>
+        <v>0.1874604701845327</v>
       </c>
     </row>
     <row r="238">
@@ -2339,7 +2339,7 @@
         <v>336</v>
       </c>
       <c r="B238" t="n">
-        <v>0.2072405305820482</v>
+        <v>0.1888281813801887</v>
       </c>
     </row>
     <row r="239">
@@ -2347,7 +2347,7 @@
         <v>337</v>
       </c>
       <c r="B239" t="n">
-        <v>0.2016326325398442</v>
+        <v>0.1901543729913732</v>
       </c>
     </row>
     <row r="240">
@@ -2355,7 +2355,7 @@
         <v>338</v>
       </c>
       <c r="B240" t="n">
-        <v>0.1962621880688132</v>
+        <v>0.1914408997008035</v>
       </c>
     </row>
     <row r="241">
@@ -2363,7 +2363,7 @@
         <v>339</v>
       </c>
       <c r="B241" t="n">
-        <v>0.1911156877554693</v>
+        <v>0.1926895077815357</v>
       </c>
     </row>
     <row r="242">
@@ -2371,7 +2371,7 @@
         <v>340</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1861805752781431</v>
+        <v>0.1939018428356222</v>
       </c>
     </row>
     <row r="243">
@@ -2379,7 +2379,7 @@
         <v>341</v>
       </c>
       <c r="B243" t="n">
-        <v>0.1814451677354024</v>
+        <v>0.1950794568886534</v>
       </c>
     </row>
     <row r="244">
@@ -2387,7 +2387,7 @@
         <v>342</v>
       </c>
       <c r="B244" t="n">
-        <v>0.1768985836378785</v>
+        <v>0.19622381490051</v>
       </c>
     </row>
     <row r="245">
@@ -2395,7 +2395,7 @@
         <v>343</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1725306777327363</v>
+        <v>0.1973363007464821</v>
       </c>
     </row>
     <row r="246">
@@ -2403,7 +2403,7 @@
         <v>344</v>
       </c>
       <c r="B246" t="n">
-        <v>0.1683319819299522</v>
+        <v>0.1984182227174336</v>
       </c>
     </row>
     <row r="247">
@@ -2411,7 +2411,7 @@
         <v>345</v>
       </c>
       <c r="B247" t="n">
-        <v>0.1642936516863167</v>
+        <v>0.1994708185827775</v>
       </c>
     </row>
     <row r="248">
@@ -2419,7 +2419,7 @@
         <v>346</v>
       </c>
       <c r="B248" t="n">
-        <v>0.1604074172785396</v>
+        <v>0.200495260255651</v>
       </c>
     </row>
     <row r="249">
@@ -2427,7 +2427,7 @@
         <v>347</v>
       </c>
       <c r="B249" t="n">
-        <v>0.1566655394626106</v>
+        <v>0.2014926580957669</v>
       </c>
     </row>
     <row r="250">
@@ -2435,7 +2435,7 @@
         <v>348</v>
       </c>
       <c r="B250" t="n">
-        <v>0.1530607690739858</v>
+        <v>0.2024640648819266</v>
       </c>
     </row>
     <row r="251">
@@ -2443,7 +2443,7 @@
         <v>349</v>
       </c>
       <c r="B251" t="n">
-        <v>0.1495863101734137</v>
+        <v>0.2034104794830486</v>
       </c>
     </row>
     <row r="252">
@@ -2451,7 +2451,7 @@
         <v>350</v>
       </c>
       <c r="B252" t="n">
-        <v>0.1462357863872278</v>
+        <v>0.2043328502537789</v>
       </c>
     </row>
     <row r="253">
@@ -2459,7 +2459,7 @@
         <v>351</v>
       </c>
       <c r="B253" t="n">
-        <v>0.1430032101295724</v>
+        <v>0.2052320781782427</v>
       </c>
     </row>
     <row r="254">
@@ -2467,7 +2467,7 @@
         <v>352</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1398829544280047</v>
+        <v>0.2061090197832586</v>
       </c>
     </row>
     <row r="255">
@@ -2475,7 +2475,7 @@
         <v>353</v>
       </c>
       <c r="B255" t="n">
-        <v>0.1368697271038352</v>
+        <v>0.2069644898403243</v>
       </c>
     </row>
     <row r="256">
@@ -2483,7 +2483,7 @@
         <v>354</v>
       </c>
       <c r="B256" t="n">
-        <v>0.1339585470849608</v>
+        <v>0.2077992638738829</v>
       </c>
     </row>
     <row r="257">
@@ -2491,7 +2491,7 @@
         <v>355</v>
       </c>
       <c r="B257" t="n">
-        <v>0.1311447226522645</v>
+        <v>0.2086140804917557</v>
       </c>
     </row>
     <row r="258">
@@ -2499,7 +2499,7 @@
         <v>356</v>
       </c>
       <c r="B258" t="n">
-        <v>0.1284238314412836</v>
+        <v>0.2094096435521771</v>
       </c>
     </row>
     <row r="259">
@@ -2507,7 +2507,7 @@
         <v>357</v>
       </c>
       <c r="B259" t="n">
-        <v>0.1257917020391322</v>
+        <v>0.2101866241805518</v>
       </c>
     </row>
     <row r="260">
@@ -2515,7 +2515,7 @@
         <v>358</v>
       </c>
       <c r="B260" t="n">
-        <v>0.123244397032885</v>
+        <v>0.2109456626478793</v>
       </c>
     </row>
     <row r="261">
@@ -2523,7 +2523,7 @@
         <v>359</v>
       </c>
       <c r="B261" t="n">
-        <v>0.1207781973800453</v>
+        <v>0.2116873701217268</v>
       </c>
     </row>
     <row r="262">
@@ -2531,7 +2531,7 @@
         <v>360</v>
       </c>
       <c r="B262" t="n">
-        <v>0.1183895879845506</v>
+        <v>0.2124123302996703</v>
       </c>
     </row>
     <row r="263">
@@ -2539,7 +2539,7 @@
         <v>361</v>
       </c>
       <c r="B263" t="n">
-        <v>0.1160752443731956</v>
+        <v>0.2131211009342615</v>
       </c>
     </row>
     <row r="264">
@@ -2547,7 +2547,7 @@
         <v>362</v>
       </c>
       <c r="B264" t="n">
-        <v>0.1138320203775555</v>
+        <v>0.213814215257791</v>
       </c>
     </row>
     <row r="265">
@@ -2555,7 +2555,7 @@
         <v>363</v>
       </c>
       <c r="B265" t="n">
-        <v>0.1116569367356013</v>
+        <v>0.2144921833144148</v>
       </c>
     </row>
     <row r="266">
@@ -2563,7 +2563,7 @@
         <v>364</v>
       </c>
       <c r="B266" t="n">
-        <v>0.1095471705353492</v>
+        <v>0.2151554932065633</v>
       </c>
     </row>
     <row r="267">
@@ -2571,7 +2571,7 @@
         <v>365</v>
       </c>
       <c r="B267" t="n">
-        <v>0.1075000454301852</v>
+        <v>0.2158046122619774</v>
       </c>
     </row>
     <row r="268">
@@ -2579,7 +2579,7 @@
         <v>366</v>
       </c>
       <c r="B268" t="n">
-        <v>0.1055130225620518</v>
+        <v>0.2164399881271832</v>
       </c>
     </row>
     <row r="269">
@@ -2587,7 +2587,7 @@
         <v>367</v>
       </c>
       <c r="B269" t="n">
-        <v>0.1035836921345572</v>
+        <v>0.2170620497927427</v>
       </c>
     </row>
     <row r="270">
@@ -2595,7 +2595,7 @@
         <v>368</v>
       </c>
       <c r="B270" t="n">
-        <v>0.1017097655833493</v>
+        <v>0.2176712085551767</v>
       </c>
     </row>
     <row r="271">
@@ -2603,7 +2603,7 @@
         <v>369</v>
       </c>
       <c r="B271" t="n">
-        <v>0.0998890682958483</v>
+        <v>0.2182678589200643</v>
       </c>
     </row>
     <row r="272">
@@ -2611,7 +2611,7 @@
         <v>370</v>
       </c>
       <c r="B272" t="n">
-        <v>0.0981195328367106</v>
+        <v>0.2188523794504637</v>
       </c>
     </row>
     <row r="273">
@@ -2619,7 +2619,7 @@
         <v>371</v>
       </c>
       <c r="B273" t="n">
-        <v>0.09639919263925534</v>
+        <v>0.2194251335644659</v>
       </c>
     </row>
     <row r="274">
@@ -2627,7 +2627,7 @@
         <v>372</v>
       </c>
       <c r="B274" t="n">
-        <v>0.0947261761265708</v>
+        <v>0.2199864702853938</v>
       </c>
     </row>
     <row r="275">
@@ -2635,7 +2635,7 @@
         <v>373</v>
       </c>
       <c r="B275" t="n">
-        <v>0.09309870122916321</v>
+        <v>0.2205367249478914</v>
       </c>
     </row>
     <row r="276">
@@ -2643,7 +2643,7 @@
         <v>374</v>
       </c>
       <c r="B276" t="n">
-        <v>0.09151507026885938</v>
+        <v>0.2210762198628903</v>
       </c>
     </row>
     <row r="277">
@@ -2651,7 +2651,7 @@
         <v>375</v>
       </c>
       <c r="B277" t="n">
-        <v>0.08997366518125219</v>
+        <v>0.221605264944215</v>
       </c>
     </row>
     <row r="278">
@@ -2659,7 +2659,7 @@
         <v>376</v>
       </c>
       <c r="B278" t="n">
-        <v>0.0884729430513149</v>
+        <v>0.2221241582993808</v>
       </c>
     </row>
     <row r="279">
@@ -2667,7 +2667,7 @@
         <v>377</v>
       </c>
       <c r="B279" t="n">
-        <v>0.08701143193892927</v>
+        <v>0.222633186786944</v>
       </c>
     </row>
     <row r="280">
@@ -2675,7 +2675,7 @@
         <v>378</v>
       </c>
       <c r="B280" t="n">
-        <v>0.08558772697299849</v>
+        <v>0.2231326265425892</v>
       </c>
     </row>
     <row r="281">
@@ -2683,7 +2683,7 @@
         <v>379</v>
       </c>
       <c r="B281" t="n">
-        <v>0.08420048669456406</v>
+        <v>0.2236227434759782</v>
       </c>
     </row>
     <row r="282">
@@ -2691,7 +2691,7 @@
         <v>380</v>
       </c>
       <c r="B282" t="n">
-        <v>0.08284842963093821</v>
+        <v>0.224103793740236</v>
       </c>
     </row>
     <row r="283">
@@ -2699,7 +2699,7 @@
         <v>381</v>
       </c>
       <c r="B283" t="n">
-        <v>0.081530331084312</v>
+        <v>0.2245760241758127</v>
       </c>
     </row>
     <row r="284">
@@ -2707,7 +2707,7 @@
         <v>382</v>
       </c>
       <c r="B284" t="n">
-        <v>0.08024502011961981</v>
+        <v>0.225039672730337</v>
       </c>
     </row>
     <row r="285">
@@ -2715,7 +2715,7 @@
         <v>383</v>
       </c>
       <c r="B285" t="n">
-        <v>0.07899137673764546</v>
+        <v>0.225494968855962</v>
       </c>
     </row>
     <row r="286">
@@ -2723,7 +2723,7 @@
         <v>384</v>
       </c>
       <c r="B286" t="n">
-        <v>0.0777683292204546</v>
+        <v>0.2259421338855956</v>
       </c>
     </row>
     <row r="287">
@@ -2731,7 +2731,7 @@
         <v>385</v>
       </c>
       <c r="B287" t="n">
-        <v>0.07657485163724219</v>
+        <v>0.2263813813893115</v>
       </c>
     </row>
     <row r="288">
@@ -2739,7 +2739,7 @@
         <v>386</v>
       </c>
       <c r="B288" t="n">
-        <v>0.07540996149960287</v>
+        <v>0.2268129175121495</v>
       </c>
     </row>
     <row r="289">
@@ -2747,7 +2747,7 @@
         <v>387</v>
       </c>
       <c r="B289" t="n">
-        <v>0.07427271755607145</v>
+        <v>0.2272369412944252</v>
       </c>
     </row>
     <row r="290">
@@ -2755,7 +2755,7 @@
         <v>388</v>
       </c>
       <c r="B290" t="n">
-        <v>0.07316221771655167</v>
+        <v>0.2276536449755985</v>
       </c>
     </row>
     <row r="291">
@@ -2763,7 +2763,7 @@
         <v>389</v>
       </c>
       <c r="B291" t="n">
-        <v>0.07207759709795511</v>
+        <v>0.2280632142826737</v>
       </c>
     </row>
     <row r="292">
@@ -2771,7 +2771,7 @@
         <v>390</v>
       </c>
       <c r="B292" t="n">
-        <v>0.07101802618302076</v>
+        <v>0.2284658287040446</v>
       </c>
     </row>
     <row r="293">
@@ -2779,7 +2779,7 @@
         <v>391</v>
       </c>
       <c r="B293" t="n">
-        <v>0.06998270908487791</v>
+        <v>0.2288616617496315</v>
       </c>
     </row>
     <row r="294">
@@ -2787,7 +2787,7 @@
         <v>392</v>
       </c>
       <c r="B294" t="n">
-        <v>0.06897088191046136</v>
+        <v>0.2292508811981044</v>
       </c>
     </row>
     <row r="295">
@@ -2795,7 +2795,7 @@
         <v>393</v>
       </c>
       <c r="B295" t="n">
-        <v>0.0679818112163891</v>
+        <v>0.229633649331934</v>
       </c>
     </row>
     <row r="296">
@@ -2803,7 +2803,7 @@
         <v>394</v>
       </c>
       <c r="B296" t="n">
-        <v>0.06701479255137359</v>
+        <v>0.2300101231609639</v>
       </c>
     </row>
     <row r="297">
@@ -2811,7 +2811,7 @@
         <v>395</v>
       </c>
       <c r="B297" t="n">
-        <v>0.06606914907966194</v>
+        <v>0.2303804546351524</v>
       </c>
     </row>
     <row r="298">
@@ -2819,7 +2819,7 @@
         <v>396</v>
       </c>
       <c r="B298" t="n">
-        <v>0.06514423028039183</v>
+        <v>0.2307447908470899</v>
       </c>
     </row>
     <row r="299">
@@ -2827,7 +2827,7 @@
         <v>397</v>
       </c>
       <c r="B299" t="n">
-        <v>0.06423941071810971</v>
+        <v>0.231103274224862</v>
       </c>
     </row>
     <row r="300">
@@ -2835,7 +2835,7 @@
         <v>398</v>
       </c>
       <c r="B300" t="n">
-        <v>0.06335408888003059</v>
+        <v>0.23145604271579</v>
       </c>
     </row>
     <row r="301">
@@ -2843,7 +2843,7 @@
         <v>399</v>
       </c>
       <c r="B301" t="n">
-        <v>0.06248768607592535</v>
+        <v>0.2318032299615482</v>
       </c>
     </row>
   </sheetData>
